--- a/TESLA sales.xlsx
+++ b/TESLA sales.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShekharBiswas\Desktop\GITHUB\Tesla-Stock-Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4575" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sales" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Europe_country" sheetId="2" r:id="rId5"/>
+    <sheet name="Sales" sheetId="1" r:id="rId1"/>
+    <sheet name="EU_US" sheetId="2" r:id="rId2"/>
+    <sheet name="Europe_country" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -60,6 +69,18 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>EU</t>
   </si>
   <si>
     <t>Country</t>
@@ -125,20 +146,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF444444"/>
       <name val="Arial"/>
     </font>
@@ -148,7 +173,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -182,7 +207,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -196,72 +227,68 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -451,20 +478,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,1298 +508,2839 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>2016.0</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2016</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>2075.0</v>
+        <v>2075</v>
       </c>
       <c r="D2" s="1">
-        <v>613.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2150.0</v>
+        <v>2150</v>
       </c>
       <c r="D3" s="1">
-        <v>494.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="D4" s="1">
-        <v>1930.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="D5" s="1">
-        <v>689.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="D6" s="1">
-        <v>516.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="D7" s="1">
-        <v>1792.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="D8" s="1">
-        <v>665.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="D9" s="1">
-        <v>1136.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="D10" s="1">
-        <v>3206.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="D11" s="1">
-        <v>704.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="D12" s="1">
-        <v>963.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="D13" s="1">
-        <v>2743.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>2017.0</v>
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2017</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>2800.0</v>
+        <v>2800</v>
       </c>
       <c r="D14" s="1">
-        <v>1433.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="D15" s="1">
-        <v>1115.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="D16" s="1">
-        <v>3885.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>4400.0</v>
+        <v>4400</v>
       </c>
       <c r="D17" s="1">
-        <v>920.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>4400.0</v>
+        <v>4400</v>
       </c>
       <c r="D18" s="1">
-        <v>1659.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>4400.0</v>
+        <v>4400</v>
       </c>
       <c r="D19" s="1">
-        <v>2962.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>4400.0</v>
+        <v>4400</v>
       </c>
       <c r="D20" s="1">
-        <v>1084.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1">
-        <v>4400.0</v>
+        <v>4400</v>
       </c>
       <c r="D21" s="1">
-        <v>1329.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1">
-        <v>4517.0</v>
+        <v>4517</v>
       </c>
       <c r="D22" s="1">
-        <v>4682.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1">
-        <v>4545.0</v>
+        <v>4545</v>
       </c>
       <c r="D23" s="1">
-        <v>1402.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="1">
-        <v>4745.0</v>
+        <v>4745</v>
       </c>
       <c r="D24" s="1">
-        <v>2695.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1">
-        <v>5460.0</v>
+        <v>5460</v>
       </c>
       <c r="D25" s="1">
-        <v>4820.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>2018.0</v>
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2018</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>6875.0</v>
+        <v>6875</v>
       </c>
       <c r="D26" s="1">
-        <v>656.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1">
-        <v>7485.0</v>
+        <v>7485</v>
       </c>
       <c r="D27" s="1">
-        <v>939.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>8820.0</v>
+        <v>8820</v>
       </c>
       <c r="D28" s="1">
-        <v>4629.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1">
-        <v>6150.0</v>
+        <v>6150</v>
       </c>
       <c r="D29" s="1">
-        <v>1335.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1">
-        <v>11250.0</v>
+        <v>11250</v>
       </c>
       <c r="D30" s="1">
-        <v>1842.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="1">
-        <v>11062.0</v>
+        <v>11062</v>
       </c>
       <c r="D31" s="1">
-        <v>4025.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>16675.0</v>
+        <v>16675</v>
       </c>
       <c r="D32" s="1">
-        <v>1079.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1">
-        <v>21700.0</v>
+        <v>21700</v>
       </c>
       <c r="D33" s="1">
-        <v>1482.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1">
-        <v>29975.0</v>
+        <v>29975</v>
       </c>
       <c r="D34" s="1">
-        <v>5472.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="1">
-        <v>20325.0</v>
+        <v>20325</v>
       </c>
       <c r="D35" s="1">
-        <v>917.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="1">
-        <v>24600.0</v>
+        <v>24600</v>
       </c>
       <c r="D36" s="1">
-        <v>2039.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="1">
-        <v>32600.0</v>
+        <v>32600</v>
       </c>
       <c r="D37" s="1">
-        <v>5199.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2">
-        <v>2019.0</v>
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>2019</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>8325.0</v>
+        <v>8325</v>
       </c>
       <c r="D38" s="1">
-        <v>804.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>7650.0</v>
+        <v>7650</v>
       </c>
       <c r="D39" s="1">
-        <v>4255.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1">
-        <v>14625.0</v>
+        <v>14625</v>
       </c>
       <c r="D40" s="1">
-        <v>16313.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>16313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1">
-        <v>11925.0</v>
+        <v>11925</v>
       </c>
       <c r="D41" s="1">
-        <v>4451.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1">
-        <v>16350.0</v>
+        <v>16350</v>
       </c>
       <c r="D42" s="1">
-        <v>5295.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="1">
-        <v>25025.0</v>
+        <v>25025</v>
       </c>
       <c r="D43" s="1">
-        <v>14105.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>14105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1">
-        <v>15650.0</v>
+        <v>15650</v>
       </c>
       <c r="D44" s="1">
-        <v>4612.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1">
-        <v>16025.0</v>
+        <v>16025</v>
       </c>
       <c r="D45" s="1">
-        <v>6594.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="1">
-        <v>23025.0</v>
+        <v>23025</v>
       </c>
       <c r="D46" s="1">
-        <v>1956.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="1">
-        <v>18612.0</v>
+        <v>18612</v>
       </c>
       <c r="D47" s="1">
-        <v>2512.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="1">
-        <v>19301.0</v>
+        <v>19301</v>
       </c>
       <c r="D48" s="1">
-        <v>8978.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>8978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="1">
-        <v>18612.0</v>
+        <v>18612</v>
       </c>
       <c r="D49" s="1">
-        <v>24249.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2">
-        <v>2020.0</v>
+        <v>24249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>2020</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>22350.0</v>
+        <v>22350</v>
       </c>
       <c r="D50" s="1">
-        <v>2069.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="1">
-        <v>20450.0</v>
+        <v>20450</v>
       </c>
       <c r="D51" s="1">
-        <v>3933.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="1">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="D52" s="1">
-        <v>17248.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>17248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1">
-        <v>6624.0</v>
+        <v>6624</v>
       </c>
       <c r="D53" s="1">
-        <v>3246.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1">
-        <v>14720.0</v>
+        <v>14720</v>
       </c>
       <c r="D54" s="1">
-        <v>2779.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="1">
-        <v>15456.0</v>
+        <v>15456</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2075</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2150</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2250</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4517</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4545</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="1">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4745</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="1">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5460</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6875</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7485</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8820</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6150</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11250</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11062</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16675</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>21700</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1">
+        <v>29975</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20325</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="1">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1">
+        <v>24600</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B37" s="1">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1">
+        <v>32600</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8325</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7650</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>14625</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>11925</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>16350</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>25025</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1">
+        <v>15650</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B45" s="1">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>16025</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1">
+        <v>23025</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B47" s="1">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1">
+        <v>18612</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B48" s="1">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1">
+        <v>19301</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B49" s="1">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1">
+        <v>18612</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>22350</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20450</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6624</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>14720</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>15456</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>613</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>494</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1930</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>689</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>516</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1792</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B62" s="1">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1">
+        <v>665</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B63" s="1">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1136</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B64" s="1">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3206</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B65" s="1">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1">
+        <v>704</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B66" s="1">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1">
+        <v>963</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B67" s="1">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2743</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1433</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1115</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3885</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>920</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1659</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B73" s="1">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2962</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B74" s="1">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1084</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B75" s="1">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1329</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4682</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B77" s="1">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1402</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B78" s="1">
+        <v>11</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2695</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B79" s="1">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4820</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>656</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>939</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4629</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B83" s="1">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1335</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B84" s="1">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1842</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B85" s="1">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4025</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B86" s="1">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1079</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1482</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5472</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B89" s="1">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1">
+        <v>917</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B90" s="1">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2039</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B91" s="1">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5199</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>804</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4255</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1">
+        <v>16313</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B95" s="1">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4451</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5295</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B97" s="1">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1">
+        <v>14105</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B98" s="1">
+        <v>7</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4612</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B99" s="1">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1">
+        <v>6594</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B100" s="1">
+        <v>9</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1956</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B101" s="1">
+        <v>10</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2512</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B102" s="1">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1">
+        <v>8978</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B103" s="1">
+        <v>12</v>
+      </c>
+      <c r="C103" s="1">
+        <v>24249</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2069</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3933</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1">
+        <v>17248</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3246</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B108" s="1">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2779</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B109" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.43"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="C1" s="4">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="D1" s="4">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E1" s="4">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="F1" s="4">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="G1" s="4">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="H1" s="4">
-        <v>2019.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="D2" s="6">
-        <v>492.0</v>
+        <v>492</v>
       </c>
       <c r="E2" s="6">
-        <v>717.0</v>
+        <v>717</v>
       </c>
       <c r="F2" s="6">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="G2" s="6">
-        <v>473.0</v>
+        <v>473</v>
       </c>
       <c r="H2" s="6">
-        <v>2966.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="8">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="C3" s="8">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="D3" s="8">
-        <v>820.0</v>
+        <v>820</v>
       </c>
       <c r="E3" s="8">
-        <v>859.0</v>
+        <v>859</v>
       </c>
       <c r="F3" s="8">
-        <v>1151.0</v>
+        <v>1151</v>
       </c>
       <c r="G3" s="8">
-        <v>878.0</v>
+        <v>878</v>
       </c>
       <c r="H3" s="8">
-        <v>3690.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="G4" s="11">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="H4" s="11">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="C5" s="8">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="D5" s="8">
-        <v>2736.0</v>
+        <v>2736</v>
       </c>
       <c r="E5" s="8">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="F5" s="8">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="G5" s="8">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="H5" s="8">
-        <v>2734.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="11">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="D6" s="11">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="E6" s="11">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="F6" s="11">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="G6" s="11">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="H6" s="11">
-        <v>924.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="D7" s="8">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="E7" s="8">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="F7" s="8">
-        <v>1368.0</v>
+        <v>1368</v>
       </c>
       <c r="G7" s="8">
-        <v>1252.0</v>
+        <v>1252</v>
       </c>
       <c r="H7" s="8">
-        <v>7442.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>7442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="C8" s="10">
-        <v>814.0</v>
+        <v>814</v>
       </c>
       <c r="D8" s="11">
-        <v>1582.0</v>
+        <v>1582</v>
       </c>
       <c r="E8" s="11">
-        <v>1908.0</v>
+        <v>1908</v>
       </c>
       <c r="F8" s="11">
-        <v>3332.0</v>
+        <v>3332</v>
       </c>
       <c r="G8" s="11">
-        <v>1905.0</v>
+        <v>1905</v>
       </c>
       <c r="H8" s="11">
-        <v>10711.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>10711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="11">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="G10" s="11">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="H10" s="11">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="D11" s="8">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="E11" s="8">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="F11" s="8">
-        <v>482.0</v>
+        <v>482</v>
       </c>
       <c r="G11" s="8">
-        <v>464.0</v>
+        <v>464</v>
       </c>
       <c r="H11" s="8">
-        <v>2450.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="G12" s="11">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="H12" s="11">
-        <v>456.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8">
-        <v>1195.0</v>
+        <v>1195</v>
       </c>
       <c r="C13" s="8">
-        <v>1469.0</v>
+        <v>1469</v>
       </c>
       <c r="D13" s="8">
-        <v>1891.0</v>
+        <v>1891</v>
       </c>
       <c r="E13" s="8">
-        <v>2149.0</v>
+        <v>2149</v>
       </c>
       <c r="F13" s="8">
-        <v>3317.0</v>
+        <v>3317</v>
       </c>
       <c r="G13" s="8">
-        <v>8604.0</v>
+        <v>8604</v>
       </c>
       <c r="H13" s="8">
-        <v>30911.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>30911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" s="11">
-        <v>1983.0</v>
+        <v>1983</v>
       </c>
       <c r="C14" s="11">
-        <v>4040.0</v>
+        <v>4040</v>
       </c>
       <c r="D14" s="11">
-        <v>4039.0</v>
+        <v>4039</v>
       </c>
       <c r="E14" s="11">
-        <v>3481.0</v>
+        <v>3481</v>
       </c>
       <c r="F14" s="11">
-        <v>8460.0</v>
+        <v>8460</v>
       </c>
       <c r="G14" s="11">
-        <v>8614.0</v>
+        <v>8614</v>
       </c>
       <c r="H14" s="11">
-        <v>18798.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>18798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15" s="8">
-        <v>1979.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B16" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E17" s="8">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F17" s="8">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G17" s="8">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H17" s="8">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="11">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D18" s="11">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E18" s="11">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="F18" s="11">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="G18" s="11">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="H18" s="11">
-        <v>2051.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C19" s="8">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="D19" s="8">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="E19" s="8">
-        <v>1160.0</v>
+        <v>1160</v>
       </c>
       <c r="F19" s="8">
-        <v>1283.0</v>
+        <v>1283</v>
       </c>
       <c r="G19" s="8">
-        <v>1228.0</v>
+        <v>1228</v>
       </c>
       <c r="H19" s="8">
-        <v>6194.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B20" s="13">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="C20" s="13">
-        <v>496.0</v>
+        <v>496</v>
       </c>
       <c r="D20" s="13">
-        <v>1556.0</v>
+        <v>1556</v>
       </c>
       <c r="E20" s="13">
-        <v>1701.0</v>
+        <v>1701</v>
       </c>
       <c r="F20" s="13">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="G20" s="13">
-        <v>1452.0</v>
+        <v>1452</v>
       </c>
       <c r="H20" s="13">
-        <v>6061.0</v>
+        <v>6061</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>